--- a/SP_Sklad/TempLate/WayBill_Out_temp.xlsx
+++ b/SP_Sklad/TempLate/WayBill_Out_temp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5550" yWindow="5175" windowWidth="13395" windowHeight="8310"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>sum</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>для реалізації</t>
-  </si>
-  <si>
-    <t>Помилуйко О.В.</t>
   </si>
   <si>
     <t xml:space="preserve">Наймену підприємства-виробника: </t>
@@ -193,13 +190,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1057,7 +1054,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1121,7 +1118,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1141,7 +1138,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1223,6 +1220,33 @@
     <xf numFmtId="2" fontId="28" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1238,7 +1262,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1274,48 +1298,54 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1334,32 +1364,44 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1370,56 +1412,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1581,7 +1578,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1616,7 +1612,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1792,13 +1787,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:R30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
@@ -1820,16 +1815,16 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="97" t="s">
+    <row r="2" spans="2:18" ht="16.5" customHeight="1">
+      <c r="B2" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
       <c r="I2" s="56"/>
       <c r="J2" s="30" t="e">
         <f>WayBillList_NUM</f>
@@ -1839,17 +1834,17 @@
         <v>3</v>
       </c>
       <c r="L2" s="26"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
       <c r="O2" s="41"/>
-      <c r="P2" s="102" t="e">
+      <c r="P2" s="111" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q2" s="102"/>
+      <c r="Q2" s="111"/>
       <c r="R2" s="49"/>
     </row>
-    <row r="4" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="16.5" thickBot="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -1865,21 +1860,21 @@
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18">
       <c r="B5" s="45"/>
       <c r="D5" s="11" t="e">
         <f>CONCATENATE(IF(WayBillList_EntOKPO&lt;&gt;"","ЗКПО "&amp;WayBillList_EntOKPO&amp;", ",""),"тел. ",WayBillList_EntKaPhone)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18">
       <c r="B6" s="45"/>
       <c r="D6" s="11" t="e">
         <f>IF(EntAccount_AccNum&lt;&gt;"",CONCATENATE("Р/р ",EntAccount_AccNum," в ",EntAccount_BankName, ", МФО ",EntAccount_MFO),"")</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18">
       <c r="B7" s="45" t="e">
         <f>WayBillList_EntINN</f>
         <v>#NAME?</v>
@@ -1893,20 +1888,20 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" ht="24.75" customHeight="1">
       <c r="B8" s="53"/>
-      <c r="D8" s="104" t="e">
+      <c r="D8" s="113" t="e">
         <f>"Адреса: "&amp;WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-    </row>
-    <row r="11" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+    </row>
+    <row r="11" spans="2:18" ht="16.5" thickBot="1">
       <c r="B11" s="24" t="s">
         <v>11</v>
       </c>
@@ -1922,21 +1917,21 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="24.75" customHeight="1">
       <c r="B12" s="52"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="105" t="e">
+      <c r="D12" s="114" t="e">
         <f>CONCATENATE("Адреса: ",WayBillList_AddressBuy)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-    </row>
-    <row r="14" spans="2:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+    </row>
+    <row r="14" spans="2:18" ht="11.25" customHeight="1">
       <c r="B14" s="20"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1954,7 +1949,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" ht="16.5" customHeight="1">
       <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
@@ -1977,7 +1972,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" ht="16.5" customHeight="1">
       <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1989,11 +1984,11 @@
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="103" t="e">
+      <c r="F16" s="112" t="e">
         <f>IF(WayBillList_AttDate&gt;0,WayBillList_AttDate,"")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="103"/>
+      <c r="G16" s="112"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="10"/>
@@ -2005,30 +2000,30 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="98" t="e">
+    <row r="17" spans="1:17" ht="18.75" customHeight="1">
+      <c r="B17" s="107" t="e">
         <f>CONCATENATE("Підстава: ",WayBillList_Reason)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-    </row>
-    <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+    </row>
+    <row r="18" spans="1:17" ht="6" customHeight="1">
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2037,17 +2032,17 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="30.75" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="109"/>
+      <c r="C19" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="118"/>
       <c r="H19" s="7" t="s">
         <v>5</v>
       </c>
@@ -2077,19 +2072,19 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="12.75" customHeight="1">
       <c r="B20" s="8" t="e">
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C20" s="110" t="e">
+      <c r="C20" s="119" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="112"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="121"/>
       <c r="H20" s="8" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
@@ -2131,17 +2126,17 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="12.75" customHeight="1">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="113" t="e">
+      <c r="F21" s="122" t="e">
         <f>IF(B22&gt;0,"Всього без ПДВ","Всього")</f>
         <v>#NAME?</v>
       </c>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
       <c r="I21" s="58" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="12.75" customHeight="1">
       <c r="B22" s="48" t="e">
         <f>WayBillList_NDS</f>
         <v>#NAME?</v>
@@ -2180,11 +2175,11 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="99" t="e">
+      <c r="J22" s="108" t="e">
         <f>IF(B22&gt;0,CONCATENATE("Всього ПДВ "&amp;WayBillList_NDS&amp;"%"),"Всього без знижки")</f>
         <v>#NAME?</v>
       </c>
-      <c r="K22" s="100"/>
+      <c r="K22" s="109"/>
       <c r="L22" s="44"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
@@ -2195,18 +2190,18 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="12.75" customHeight="1">
       <c r="B23" s="46" t="e">
         <f>P21+Q21</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="118" t="e">
+      <c r="H23" s="103" t="e">
         <f>IF(B22&gt;0,"Разом, в т.ч ПДВ:","Всього до сплати")</f>
         <v>#NAME?</v>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="119"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="104"/>
       <c r="L23" s="44"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
@@ -2217,13 +2212,13 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
+    <row r="24" spans="1:17" ht="12.75" customHeight="1">
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2235,7 +2230,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="12.75" customHeight="1">
       <c r="B25" s="28" t="s">
         <v>12</v>
       </c>
@@ -2258,7 +2253,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="12.75" customHeight="1">
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -2276,7 +2271,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="12.75" customHeight="1">
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -2294,7 +2289,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="12.75" customHeight="1">
       <c r="B28" s="55" t="e">
         <f>WayBillList_WTYPE</f>
         <v>#NAME?</v>
@@ -2318,7 +2313,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="12.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2337,40 +2332,34 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="12.75" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="115"/>
-      <c r="D30" s="117" t="e">
+      <c r="C30" s="100"/>
+      <c r="D30" s="102" t="e">
         <f>IF(B28 &lt; 0,C28," ")</f>
         <v>#NAME?</v>
       </c>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="120" t="s">
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="101"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H30:J30"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B17:Q17"/>
     <mergeCell ref="J22:K22"/>
@@ -2383,6 +2372,12 @@
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2392,15 +2387,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист2"/>
   <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.140625" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" customWidth="1"/>
@@ -2418,36 +2413,36 @@
     <col min="14" max="14" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="136" t="s">
+    <row r="1" spans="2:14" ht="35.25" customHeight="1">
+      <c r="B1" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-    </row>
-    <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="138" t="s">
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+    </row>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B2" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
       <c r="L2" s="61" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
@@ -2455,124 +2450,124 @@
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B3" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-    </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="63"/>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134" t="e">
+        <f>WayBillList_EntKaFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B5" s="63"/>
+      <c r="C5" s="134" t="e">
+        <f>WayBillList_AddressSel</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B6" s="63"/>
+      <c r="C6" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139" t="e">
+      <c r="D6" s="134"/>
+      <c r="E6" s="134" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-    </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="63"/>
-      <c r="C5" s="139" t="e">
-        <f>WayBillList_AddressSel</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-    </row>
-    <row r="6" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
-      <c r="C6" s="139" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139" t="e">
-        <f>WayBillList_EntKaFullName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-    </row>
-    <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="134"/>
+      <c r="N6" s="134"/>
+    </row>
+    <row r="7" spans="2:14" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="B7" s="63"/>
       <c r="C7" s="37" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
-      <c r="F7" s="139" t="e">
+      <c r="F7" s="134" t="e">
         <f>WayBillList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-    </row>
-    <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+    </row>
+    <row r="8" spans="2:14" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="B8" s="62"/>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="140" t="e">
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="140"/>
-      <c r="I8" s="139" t="s">
+      <c r="H8" s="135"/>
+      <c r="I8" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-    </row>
-    <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+    </row>
+    <row r="9" spans="2:14" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="B9" s="62"/>
       <c r="C9" s="61" t="s">
         <v>31</v>
@@ -2585,11 +2580,11 @@
       <c r="F9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="142" t="e">
+      <c r="G9" s="137" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="142"/>
+      <c r="H9" s="137"/>
       <c r="I9" s="37" t="s">
         <v>33</v>
       </c>
@@ -2599,7 +2594,7 @@
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
     </row>
-    <row r="10" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B10" s="62"/>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
@@ -2614,67 +2609,67 @@
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
     </row>
-    <row r="11" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="122" t="s">
+    <row r="11" spans="2:14" s="1" customFormat="1"/>
+    <row r="12" spans="2:14" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B12" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="122" t="s">
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="122" t="s">
+      <c r="H12" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="122" t="s">
+      <c r="J12" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="122" t="s">
+      <c r="K12" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="122" t="s">
+      <c r="L12" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="124" t="s">
+      <c r="M12" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="125"/>
-    </row>
-    <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="123"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="127"/>
-    </row>
-    <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="127"/>
+    </row>
+    <row r="13" spans="2:14" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="B13" s="124"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="130"/>
+    </row>
+    <row r="14" spans="2:14" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="B14" s="38" t="e">
         <f>Posvitcheny_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C14" s="131" t="e">
+      <c r="C14" s="142" t="e">
         <f>Posvitcheny_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="133"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="144"/>
       <c r="G14" s="39" t="e">
         <f>Posvitcheny_AMOUNT</f>
         <v>#NAME?</v>
@@ -2699,32 +2694,32 @@
         <f>Posvitcheny_CF4</f>
         <v>#NAME?</v>
       </c>
-      <c r="M14" s="128" t="e">
+      <c r="M14" s="139" t="e">
         <f>Posvitcheny_CF5</f>
         <v>#NAME?</v>
       </c>
-      <c r="N14" s="129"/>
-    </row>
-    <row r="15" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="3:14" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="130" t="e">
+      <c r="N14" s="140"/>
+    </row>
+    <row r="15" spans="2:14" ht="12.75" customHeight="1"/>
+    <row r="16" spans="2:14" ht="12.75" customHeight="1"/>
+    <row r="17" spans="3:14" ht="290.25" customHeight="1">
+      <c r="C17" s="141" t="e">
         <f>WayBillList_Declaration</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+    </row>
+    <row r="18" spans="3:14">
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
@@ -2738,49 +2733,56 @@
       <c r="M18" s="64"/>
       <c r="N18" s="50"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C20" s="121" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="K20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="3:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:14">
+      <c r="C20" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+    </row>
+    <row r="21" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="22" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="23" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="24" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="25" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="26" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="27" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="28" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="29" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="30" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="31" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="32" spans="3:14" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:F13"/>
     <mergeCell ref="G12:G13"/>
@@ -2797,16 +2799,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="F7:N7"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2815,14 +2807,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="0.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -3660,9 +3652,9 @@
     <col min="16143" max="16143" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75">
       <c r="B1" s="65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
@@ -3676,33 +3668,33 @@
       </c>
       <c r="J1" s="68"/>
       <c r="K1" s="69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="70"/>
-      <c r="M1" s="143" t="e">
+      <c r="M1" s="158" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+    </row>
+    <row r="2" spans="2:15">
       <c r="J2" s="68"/>
       <c r="K2" s="71"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="70"/>
-      <c r="E3" s="143" t="e">
+      <c r="E3" s="158" t="e">
         <f>WayBillList_AddressSel</f>
         <v>#NAME?</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="144"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="159"/>
       <c r="J3" s="68"/>
       <c r="K3" s="92" t="e">
         <f>WayBillList_EntKaFullName</f>
@@ -3713,15 +3705,15 @@
       <c r="N3" s="73"/>
       <c r="O3" s="73"/>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" ht="15" customHeight="1">
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="145" t="e">
+        <v>41</v>
+      </c>
+      <c r="E4" s="160" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="F4" s="145"/>
+      <c r="F4" s="160"/>
       <c r="G4" s="70"/>
       <c r="H4" s="70"/>
       <c r="I4" s="74"/>
@@ -3732,84 +3724,84 @@
       <c r="N4" s="73"/>
       <c r="O4" s="73"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15">
       <c r="J5" s="68"/>
       <c r="K5" s="71"/>
     </row>
-    <row r="6" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="107" t="s">
+    <row r="6" spans="2:15" ht="18" customHeight="1">
+      <c r="B6" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="118"/>
+      <c r="E6" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="107" t="s">
+      <c r="F6" s="118"/>
+      <c r="G6" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="152" t="s">
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="154" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="107" t="s">
+      <c r="L6" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="118"/>
+      <c r="N6" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="109"/>
-      <c r="N6" s="148" t="s">
+      <c r="O6" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="148" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="147"/>
+    </row>
+    <row r="7" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
       <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="68"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-    </row>
-    <row r="8" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="152"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+    </row>
+    <row r="8" spans="2:15" ht="18" customHeight="1">
       <c r="B8" s="87" t="e">
         <f>range_oz_Num</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="156" t="e">
+      <c r="C8" s="153" t="e">
         <f>range_oz_InvNumber</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="156"/>
-      <c r="E8" s="159" t="e">
+      <c r="D8" s="153"/>
+      <c r="E8" s="156" t="e">
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F8" s="160"/>
+      <c r="F8" s="157"/>
       <c r="G8" s="88" t="e">
         <f>range_oz_Remain</f>
         <v>#NAME?</v>
       </c>
-      <c r="H8" s="162" t="e">
+      <c r="H8" s="98" t="e">
         <f>range_oz_Price</f>
         <v>#NAME?</v>
       </c>
@@ -3822,32 +3814,32 @@
         <f>range_oz_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="157"/>
-      <c r="M8" s="158"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="155"/>
       <c r="N8" s="94"/>
       <c r="O8" s="76"/>
     </row>
-    <row r="9" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" ht="18" customHeight="1">
       <c r="F9" s="77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="161"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="96" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="68"/>
       <c r="K9" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="150"/>
-      <c r="M9" s="151"/>
+        <v>47</v>
+      </c>
+      <c r="L9" s="145"/>
+      <c r="M9" s="146"/>
       <c r="N9" s="93"/>
       <c r="O9" s="78"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15">
       <c r="F10" s="79"/>
       <c r="G10" s="80"/>
       <c r="H10" s="80"/>
@@ -3859,9 +3851,9 @@
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
     </row>
-    <row r="11" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" ht="19.5" customHeight="1">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="86" t="e">
         <f>WayBillList_EntKaFullName</f>
@@ -3872,7 +3864,7 @@
       <c r="I11" s="82"/>
       <c r="J11" s="68"/>
       <c r="K11" s="83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L11" s="84"/>
       <c r="M11" s="84"/>
@@ -3881,6 +3873,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:D7"/>
@@ -3890,12 +3888,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
